--- a/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006573</t>
+          <t>003853</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>人保行业轮动混合A</t>
+          <t>金鹰信息产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.27</t>
+          <t>17.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006574</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人保行业轮动混合C</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.27</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>005885</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>金鹰信息产业股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>86.07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.73</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>377150</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根健康品质生活混合</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>6</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>580006</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东吴新经济混合</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>85.94</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>002819</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>招商丰美灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>377150</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>上投摩根健康品质生活混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002776</t>
+          <t>005041</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合A</t>
+          <t>人保研究精选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24.92</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002777</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合C</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24.92</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>7</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21.31</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>006573</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>人保行业轮动混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21.31</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>580006</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>东吴新经济混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002819</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合A</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>9</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002820</t>
+          <t>005042</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合C</t>
+          <t>人保研究精选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>002777</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>招商安荣灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005041</t>
+          <t>002820</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>人保研究精选混合A</t>
+          <t>招商丰美灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005042</t>
+          <t>006574</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>人保研究精选混合C</t>
+          <t>人保行业轮动混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1248,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1080,15 +1288,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.71</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1313,4 +1314,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1446,4 +1447,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1579,4 +1580,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1588,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1599,17 +1600,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1619,14 +1640,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.49</v>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1635,14 +1678,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1651,14 +1716,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.37</v>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1667,13 +1754,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1949,7 +1950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1960,17 +1961,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1980,14 +2001,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1996,14 +2039,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.49</v>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2012,14 +2077,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5">
@@ -2028,14 +2199,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -2044,13 +2215,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2120,7 +2121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2131,17 +2132,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2151,14 +2172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2167,14 +2210,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.31</v>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2183,14 +2248,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.49</v>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2199,14 +2286,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.33</v>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2215,14 +2324,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.37</v>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2231,13 +2362,563 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>1.39</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.49</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -600,6 +617,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5398</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4980</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴新经济混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>63.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>50.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1263,7 +3198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,7 +3368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1786,138 +3721,6 @@
       </c>
       <c r="H9" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2948</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1964</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1992,26 +3795,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3236</t>
+          <t>0.2948</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2020,36 +3823,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010999</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合A</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>88.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.1964</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2058,6 +3861,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2151,7 +4086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002126-银轮股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>7.46</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>1.39</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.49</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -616,7 +633,2243 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0106</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5732</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015440</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015441</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016238</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016237</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015694</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015695</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2534,7 +4787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3198,7 +5451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3368,7 +5621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3721,138 +5974,6 @@
       </c>
       <c r="H9" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2948</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1964</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3927,26 +6048,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3236</t>
+          <t>0.2948</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3955,36 +6076,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010999</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合A</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>88.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.1964</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3993,6 +6114,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4084,780 +6337,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003853</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6490</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2419</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005885</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1496</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002389</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1215</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000314</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1197</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001427</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1191</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0941</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0776</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>377150</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上投摩根健康品质生活混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005041</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>人保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.48</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002390</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006573</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>580006</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东吴新经济混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>85.94</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001446</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005042</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>人保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>84.48</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006574</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>